--- a/scripts/data/gics.xlsx
+++ b/scripts/data/gics.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\int.msci.com\root\Mumbai\lib\Equity Research\GICS\India\GICS Structure Review\Structure Review 2021\GICS Structures\FINAL FOR WEBSITE UPDATES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Equity Research\GICS\India\GICS Structure Review\Structure Review 2021-2023\GICS Structures\FINAL FOR WEBSITE UPDATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74680B4D-3D85-4AFA-ADFA-CC206D5908E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9B1AF1A-0735-412D-859C-FC8EE640E402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{96993676-FDBB-4BE4-8DD3-8BDE605F7C3B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{96993676-FDBB-4BE4-8DD3-8BDE605F7C3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Effective close of Mar 17 2023" sheetId="1" r:id="rId1"/>
     <sheet name="Historical changes till 2023" sheetId="2" r:id="rId2"/>
+    <sheet name="Disclaimer" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Effective close of Mar 17 2023'!$A$4:$H$4</definedName>
@@ -2515,7 +2516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2857,6 +2858,7 @@
     <xf numFmtId="1" fontId="21" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2874,10 +2876,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273346</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>108249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127FE5C6-2E41-0734-C7D0-D41A2D271A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5759746" cy="5816899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2915,7 +2966,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3021,7 +3072,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3163,7 +3214,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3175,23 +3226,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" style="30" customWidth="1"/>
     <col min="5" max="5" width="7" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.7265625" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="97.140625" style="94" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="30"/>
+    <col min="8" max="8" width="97.1796875" style="94" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
@@ -3203,7 +3254,7 @@
       <c r="G1" s="105"/>
       <c r="H1" s="106"/>
     </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="32" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="107" t="s">
         <v>1</v>
       </c>
@@ -3215,7 +3266,7 @@
       <c r="G2" s="108"/>
       <c r="H2" s="109"/>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="110" t="s">
         <v>2</v>
       </c>
@@ -3227,7 +3278,7 @@
       <c r="G3" s="111"/>
       <c r="H3" s="112"/>
     </row>
-    <row r="4" spans="1:8" s="95" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="95" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="113" t="s">
         <v>3</v>
       </c>
@@ -3245,7 +3296,7 @@
       </c>
       <c r="H4" s="115"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="96">
         <v>10</v>
       </c>
@@ -3271,7 +3322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -3283,7 +3334,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -3297,7 +3348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -3309,7 +3360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -3327,7 +3378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -3339,7 +3390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -3353,7 +3404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>17</v>
       </c>
@@ -3367,7 +3418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="99" t="s">
         <v>17</v>
       </c>
@@ -3383,7 +3434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>17</v>
       </c>
@@ -3397,7 +3448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
@@ -3413,7 +3464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>17</v>
       </c>
@@ -3427,7 +3478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
@@ -3443,7 +3494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
@@ -3457,7 +3508,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="99">
         <v>15</v>
       </c>
@@ -3483,7 +3534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>17</v>
       </c>
@@ -3497,7 +3548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="99" t="s">
         <v>17</v>
       </c>
@@ -3513,7 +3564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>17</v>
       </c>
@@ -3527,7 +3578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="99" t="s">
         <v>17</v>
       </c>
@@ -3543,7 +3594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>17</v>
       </c>
@@ -3557,7 +3608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="99" t="s">
         <v>17</v>
       </c>
@@ -3573,7 +3624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>17</v>
       </c>
@@ -3587,7 +3638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="99" t="s">
         <v>17</v>
       </c>
@@ -3603,7 +3654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>17</v>
       </c>
@@ -3617,7 +3668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="99" t="s">
         <v>17</v>
       </c>
@@ -3637,7 +3688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>17</v>
       </c>
@@ -3651,7 +3702,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="99" t="s">
         <v>17</v>
       </c>
@@ -3671,7 +3722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>17</v>
       </c>
@@ -3685,7 +3736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="99" t="s">
         <v>17</v>
       </c>
@@ -3701,7 +3752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>17</v>
       </c>
@@ -3715,7 +3766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>17</v>
       </c>
@@ -3735,7 +3786,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>17</v>
       </c>
@@ -3749,7 +3800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="99" t="s">
         <v>17</v>
       </c>
@@ -3765,7 +3816,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="52.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="52.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>17</v>
       </c>
@@ -3779,7 +3830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>17</v>
       </c>
@@ -3795,7 +3846,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>17</v>
       </c>
@@ -3809,7 +3860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="99" t="s">
         <v>17</v>
       </c>
@@ -3825,7 +3876,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>17</v>
       </c>
@@ -3839,7 +3890,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="99" t="s">
         <v>17</v>
       </c>
@@ -3855,7 +3906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>17</v>
       </c>
@@ -3869,7 +3920,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>17</v>
       </c>
@@ -3885,7 +3936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>17</v>
       </c>
@@ -3899,7 +3950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="99" t="s">
         <v>17</v>
       </c>
@@ -3915,7 +3966,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>17</v>
       </c>
@@ -3929,7 +3980,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="99" t="s">
         <v>17</v>
       </c>
@@ -3949,7 +4000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>17</v>
       </c>
@@ -3963,7 +4014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="99" t="s">
         <v>17</v>
       </c>
@@ -3979,7 +4030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>17</v>
       </c>
@@ -3993,7 +4044,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="99">
         <v>20</v>
       </c>
@@ -4019,7 +4070,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>17</v>
       </c>
@@ -4033,7 +4084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="99" t="s">
         <v>17</v>
       </c>
@@ -4053,7 +4104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
         <v>17</v>
       </c>
@@ -4067,7 +4118,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="99" t="s">
         <v>17</v>
       </c>
@@ -4087,7 +4138,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>17</v>
       </c>
@@ -4101,7 +4152,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="99" t="s">
         <v>17</v>
       </c>
@@ -4121,7 +4172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>17</v>
       </c>
@@ -4135,7 +4186,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="99" t="s">
         <v>17</v>
       </c>
@@ -4151,7 +4202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>17</v>
       </c>
@@ -4165,7 +4216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="99" t="s">
         <v>17</v>
       </c>
@@ -4185,7 +4236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>17</v>
       </c>
@@ -4199,7 +4250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="99" t="s">
         <v>17</v>
       </c>
@@ -4219,7 +4270,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>17</v>
       </c>
@@ -4233,7 +4284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>17</v>
       </c>
@@ -4249,7 +4300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>17</v>
       </c>
@@ -4263,7 +4314,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="99" t="s">
         <v>17</v>
       </c>
@@ -4279,7 +4330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>17</v>
       </c>
@@ -4293,7 +4344,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="99" t="s">
         <v>17</v>
       </c>
@@ -4313,7 +4364,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
         <v>17</v>
       </c>
@@ -4327,7 +4378,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="99" t="s">
         <v>17</v>
       </c>
@@ -4351,7 +4402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
         <v>17</v>
       </c>
@@ -4365,7 +4416,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="99" t="s">
         <v>17</v>
       </c>
@@ -4381,7 +4432,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
         <v>17</v>
       </c>
@@ -4395,7 +4446,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="99" t="s">
         <v>17</v>
       </c>
@@ -4411,7 +4462,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>17</v>
       </c>
@@ -4425,7 +4476,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
         <v>17</v>
       </c>
@@ -4441,7 +4492,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
         <v>17</v>
       </c>
@@ -4455,7 +4506,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="19" t="s">
         <v>17</v>
       </c>
@@ -4471,7 +4522,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="65" x14ac:dyDescent="0.3">
       <c r="A82" s="19" t="s">
         <v>17</v>
       </c>
@@ -4485,7 +4536,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="99" t="s">
         <v>17</v>
       </c>
@@ -4505,7 +4556,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
         <v>17</v>
       </c>
@@ -4519,7 +4570,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
         <v>17</v>
       </c>
@@ -4535,7 +4586,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
         <v>17</v>
       </c>
@@ -4549,7 +4600,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
@@ -4563,7 +4614,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
       <c r="B88" s="24"/>
       <c r="C88" s="24"/>
@@ -4575,7 +4626,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
         <v>17</v>
       </c>
@@ -4599,7 +4650,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
         <v>17</v>
       </c>
@@ -4613,7 +4664,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="99" t="s">
         <v>17</v>
       </c>
@@ -4633,7 +4684,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
         <v>17</v>
       </c>
@@ -4647,7 +4698,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="99" t="s">
         <v>17</v>
       </c>
@@ -4667,7 +4718,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>17</v>
       </c>
@@ -4681,7 +4732,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="99" t="s">
         <v>17</v>
       </c>
@@ -4701,7 +4752,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="19" t="s">
         <v>17</v>
       </c>
@@ -4715,7 +4766,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="99" t="s">
         <v>17</v>
       </c>
@@ -4731,7 +4782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
         <v>17</v>
       </c>
@@ -4745,7 +4796,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="99" t="s">
         <v>17</v>
       </c>
@@ -4761,7 +4812,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
         <v>17</v>
       </c>
@@ -4775,7 +4826,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="19"/>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
@@ -4789,7 +4840,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A102" s="19"/>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
@@ -4801,7 +4852,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="99" t="s">
         <v>17</v>
       </c>
@@ -4821,7 +4872,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
         <v>17</v>
       </c>
@@ -4835,7 +4886,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="99" t="s">
         <v>17</v>
       </c>
@@ -4851,7 +4902,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
         <v>17</v>
       </c>
@@ -4865,7 +4916,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="99" t="s">
         <v>17</v>
       </c>
@@ -4881,7 +4932,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
         <v>17</v>
       </c>
@@ -4895,7 +4946,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="99">
         <v>25</v>
       </c>
@@ -4921,7 +4972,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A110" s="19" t="s">
         <v>17</v>
       </c>
@@ -4935,7 +4986,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="99" t="s">
         <v>17</v>
       </c>
@@ -4951,7 +5002,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="19" t="s">
         <v>17</v>
       </c>
@@ -4965,7 +5016,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="99" t="s">
         <v>17</v>
       </c>
@@ -4985,7 +5036,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A114" s="19" t="s">
         <v>17</v>
       </c>
@@ -4999,7 +5050,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="99" t="s">
         <v>17</v>
       </c>
@@ -5015,7 +5066,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
         <v>17</v>
       </c>
@@ -5029,7 +5080,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="99" t="s">
         <v>17</v>
       </c>
@@ -5053,7 +5104,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
         <v>17</v>
       </c>
@@ -5067,7 +5118,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="99" t="s">
         <v>17</v>
       </c>
@@ -5083,7 +5134,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="19" t="s">
         <v>17</v>
       </c>
@@ -5097,7 +5148,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="99" t="s">
         <v>17</v>
       </c>
@@ -5113,7 +5164,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="19" t="s">
         <v>17</v>
       </c>
@@ -5127,7 +5178,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="99" t="s">
         <v>17</v>
       </c>
@@ -5143,7 +5194,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="19" t="s">
         <v>17</v>
       </c>
@@ -5157,7 +5208,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="99" t="s">
         <v>17</v>
       </c>
@@ -5173,7 +5224,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A126" s="19" t="s">
         <v>17</v>
       </c>
@@ -5187,7 +5238,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="99" t="s">
         <v>17</v>
       </c>
@@ -5207,7 +5258,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="19" t="s">
         <v>17</v>
       </c>
@@ -5221,7 +5272,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="99" t="s">
         <v>17</v>
       </c>
@@ -5241,7 +5292,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
         <v>17</v>
       </c>
@@ -5255,7 +5306,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="99" t="s">
         <v>17</v>
       </c>
@@ -5271,7 +5322,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="19" t="s">
         <v>17</v>
       </c>
@@ -5285,7 +5336,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="99" t="s">
         <v>17</v>
       </c>
@@ -5301,7 +5352,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A134" s="19" t="s">
         <v>17</v>
       </c>
@@ -5315,7 +5366,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="99" t="s">
         <v>17</v>
       </c>
@@ -5339,7 +5390,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="19" t="s">
         <v>17</v>
       </c>
@@ -5353,7 +5404,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="99" t="s">
         <v>17</v>
       </c>
@@ -5369,7 +5420,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A138" s="19" t="s">
         <v>17</v>
       </c>
@@ -5383,7 +5434,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="99" t="s">
         <v>17</v>
       </c>
@@ -5399,7 +5450,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A140" s="19" t="s">
         <v>17</v>
       </c>
@@ -5413,7 +5464,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="99" t="s">
         <v>17</v>
       </c>
@@ -5429,7 +5480,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A142" s="19" t="s">
         <v>17</v>
       </c>
@@ -5443,7 +5494,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
         <v>17</v>
       </c>
@@ -5463,7 +5514,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A144" s="19" t="s">
         <v>17</v>
       </c>
@@ -5477,7 +5528,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="19" t="s">
         <v>17</v>
       </c>
@@ -5493,7 +5544,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A146" s="19" t="s">
         <v>17</v>
       </c>
@@ -5507,7 +5558,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="99" t="s">
         <v>17</v>
       </c>
@@ -5531,7 +5582,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="19" t="s">
         <v>17</v>
       </c>
@@ -5545,7 +5596,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="99" t="s">
         <v>17</v>
       </c>
@@ -5565,7 +5616,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A150" s="19" t="s">
         <v>17</v>
       </c>
@@ -5579,7 +5630,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="99" t="s">
         <v>17</v>
       </c>
@@ -5599,7 +5650,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="19" t="s">
         <v>17</v>
       </c>
@@ -5613,7 +5664,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="99" t="s">
         <v>17</v>
       </c>
@@ -5629,7 +5680,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A154" s="19" t="s">
         <v>17</v>
       </c>
@@ -5643,7 +5694,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="19"/>
       <c r="B155" s="24"/>
       <c r="C155" s="24"/>
@@ -5657,7 +5708,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A156" s="19"/>
       <c r="B156" s="24"/>
       <c r="C156" s="24"/>
@@ -5669,7 +5720,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="99" t="s">
         <v>17</v>
       </c>
@@ -5689,7 +5740,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="19" t="s">
         <v>17</v>
       </c>
@@ -5703,7 +5754,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="99" t="s">
         <v>17</v>
       </c>
@@ -5719,7 +5770,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="19" t="s">
         <v>17</v>
       </c>
@@ -5733,7 +5784,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="99" t="s">
         <v>17</v>
       </c>
@@ -5749,7 +5800,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A162" s="19" t="s">
         <v>17</v>
       </c>
@@ -5763,7 +5814,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="99" t="s">
         <v>17</v>
       </c>
@@ -5779,7 +5830,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A164" s="19" t="s">
         <v>17</v>
       </c>
@@ -5793,7 +5844,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="19" t="s">
         <v>17</v>
       </c>
@@ -5809,7 +5860,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A166" s="19" t="s">
         <v>17</v>
       </c>
@@ -5823,7 +5874,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="19" t="s">
         <v>17</v>
       </c>
@@ -5839,7 +5890,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A168" s="19" t="s">
         <v>17</v>
       </c>
@@ -5853,7 +5904,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="99">
         <v>30</v>
       </c>
@@ -5879,7 +5930,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="19" t="s">
         <v>17</v>
       </c>
@@ -5893,7 +5944,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="99" t="s">
         <v>17</v>
       </c>
@@ -5909,7 +5960,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="19" t="s">
         <v>17</v>
       </c>
@@ -5923,7 +5974,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="99" t="s">
         <v>17</v>
       </c>
@@ -5939,7 +5990,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="19" t="s">
         <v>17</v>
       </c>
@@ -5953,7 +6004,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="19" t="s">
         <v>17</v>
       </c>
@@ -5969,7 +6020,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A176" s="19" t="s">
         <v>17</v>
       </c>
@@ -5983,7 +6034,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="99" t="s">
         <v>17</v>
       </c>
@@ -6007,7 +6058,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="19" t="s">
         <v>17</v>
       </c>
@@ -6021,7 +6072,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="99" t="s">
         <v>17</v>
       </c>
@@ -6037,7 +6088,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="19" t="s">
         <v>17</v>
       </c>
@@ -6051,7 +6102,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="99" t="s">
         <v>17</v>
       </c>
@@ -6067,7 +6118,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A182" s="19" t="s">
         <v>17</v>
       </c>
@@ -6081,7 +6132,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="99" t="s">
         <v>17</v>
       </c>
@@ -6101,7 +6152,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A184" s="19" t="s">
         <v>17</v>
       </c>
@@ -6115,7 +6166,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="99" t="s">
         <v>17</v>
       </c>
@@ -6131,7 +6182,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="19" t="s">
         <v>17</v>
       </c>
@@ -6145,7 +6196,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="99" t="s">
         <v>17</v>
       </c>
@@ -6165,7 +6216,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="19" t="s">
         <v>17</v>
       </c>
@@ -6179,7 +6230,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="99" t="s">
         <v>17</v>
       </c>
@@ -6203,7 +6254,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A190" s="19" t="s">
         <v>17</v>
       </c>
@@ -6217,7 +6268,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="99" t="s">
         <v>17</v>
       </c>
@@ -6237,7 +6288,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="19" t="s">
         <v>17</v>
       </c>
@@ -6251,7 +6302,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="99">
         <v>35</v>
       </c>
@@ -6277,7 +6328,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A194" s="19" t="s">
         <v>17</v>
       </c>
@@ -6291,7 +6342,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="99" t="s">
         <v>17</v>
       </c>
@@ -6307,7 +6358,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A196" s="19" t="s">
         <v>17</v>
       </c>
@@ -6321,7 +6372,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="99" t="s">
         <v>17</v>
       </c>
@@ -6341,7 +6392,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="19" t="s">
         <v>17</v>
       </c>
@@ -6355,7 +6406,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="19" t="s">
         <v>17</v>
       </c>
@@ -6371,7 +6422,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="19" t="s">
         <v>17</v>
       </c>
@@ -6385,7 +6436,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="99" t="s">
         <v>17</v>
       </c>
@@ -6401,7 +6452,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A202" s="19" t="s">
         <v>17</v>
       </c>
@@ -6415,7 +6466,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="99" t="s">
         <v>17</v>
       </c>
@@ -6431,7 +6482,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="19" t="s">
         <v>17</v>
       </c>
@@ -6445,7 +6496,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="19" t="s">
         <v>17</v>
       </c>
@@ -6465,7 +6516,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A206" s="19" t="s">
         <v>17</v>
       </c>
@@ -6479,7 +6530,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="99" t="s">
         <v>17</v>
       </c>
@@ -6503,7 +6554,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="19" t="s">
         <v>17</v>
       </c>
@@ -6517,7 +6568,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="99" t="s">
         <v>17</v>
       </c>
@@ -6537,7 +6588,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="19" t="s">
         <v>17</v>
       </c>
@@ -6551,7 +6602,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="19" t="s">
         <v>17</v>
       </c>
@@ -6571,7 +6622,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A212" s="19" t="s">
         <v>17</v>
       </c>
@@ -6585,7 +6636,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="99">
         <v>40</v>
       </c>
@@ -6611,7 +6662,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="19" t="s">
         <v>17</v>
       </c>
@@ -6625,7 +6676,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="19" t="s">
         <v>17</v>
       </c>
@@ -6641,7 +6692,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="65" x14ac:dyDescent="0.3">
       <c r="A216" s="19" t="s">
         <v>17</v>
       </c>
@@ -6655,7 +6706,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="19" t="s">
         <v>17</v>
       </c>
@@ -6675,7 +6726,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A218" s="19" t="s">
         <v>17</v>
       </c>
@@ -6689,7 +6740,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="99" t="s">
         <v>17</v>
       </c>
@@ -6713,7 +6764,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A220" s="19" t="s">
         <v>17</v>
       </c>
@@ -6727,7 +6778,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="99" t="s">
         <v>17</v>
       </c>
@@ -6743,7 +6794,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A222" s="19" t="s">
         <v>17</v>
       </c>
@@ -6757,7 +6808,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="19" t="s">
         <v>17</v>
       </c>
@@ -6773,7 +6824,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A224" s="19" t="s">
         <v>17</v>
       </c>
@@ -6787,7 +6838,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="19"/>
       <c r="B225" s="24"/>
       <c r="C225" s="24"/>
@@ -6801,7 +6852,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A226" s="19"/>
       <c r="B226" s="24"/>
       <c r="C226" s="24"/>
@@ -6813,7 +6864,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="19"/>
       <c r="B227" s="24"/>
       <c r="C227" s="24"/>
@@ -6827,7 +6878,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A228" s="19"/>
       <c r="B228" s="24"/>
       <c r="C228" s="24"/>
@@ -6839,7 +6890,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="19" t="s">
         <v>17</v>
       </c>
@@ -6859,7 +6910,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="19" t="s">
         <v>17</v>
       </c>
@@ -6873,7 +6924,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="19" t="s">
         <v>17</v>
       </c>
@@ -6893,7 +6944,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A232" s="19" t="s">
         <v>17</v>
       </c>
@@ -6907,7 +6958,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="19" t="s">
         <v>17</v>
       </c>
@@ -6923,7 +6974,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A234" s="19" t="s">
         <v>17</v>
       </c>
@@ -6937,7 +6988,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="19" t="s">
         <v>17</v>
       </c>
@@ -6953,7 +7004,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="65" x14ac:dyDescent="0.3">
       <c r="A236" s="19" t="s">
         <v>17</v>
       </c>
@@ -6967,7 +7018,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="19" t="s">
         <v>17</v>
       </c>
@@ -6983,7 +7034,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A238" s="19" t="s">
         <v>17</v>
       </c>
@@ -6997,7 +7048,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="99" t="s">
         <v>17</v>
       </c>
@@ -7017,7 +7068,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A240" s="19" t="s">
         <v>17</v>
       </c>
@@ -7031,7 +7082,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="99" t="s">
         <v>17</v>
       </c>
@@ -7055,7 +7106,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="19" t="s">
         <v>17</v>
       </c>
@@ -7069,7 +7120,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="99" t="s">
         <v>17</v>
       </c>
@@ -7085,7 +7136,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A244" s="19" t="s">
         <v>17</v>
       </c>
@@ -7099,7 +7150,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="99" t="s">
         <v>17</v>
       </c>
@@ -7115,7 +7166,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="19" t="s">
         <v>17</v>
       </c>
@@ -7129,7 +7180,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="99" t="s">
         <v>17</v>
       </c>
@@ -7145,7 +7196,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="19" t="s">
         <v>17</v>
       </c>
@@ -7159,7 +7210,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="99" t="s">
         <v>17</v>
       </c>
@@ -7175,7 +7226,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="19" t="s">
         <v>17</v>
       </c>
@@ -7189,7 +7240,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="99">
         <v>45</v>
       </c>
@@ -7215,7 +7266,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A252" s="19" t="s">
         <v>17</v>
       </c>
@@ -7229,7 +7280,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="19" t="s">
         <v>17</v>
       </c>
@@ -7245,7 +7296,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A254" s="19" t="s">
         <v>17</v>
       </c>
@@ -7259,7 +7310,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="19"/>
       <c r="B255" s="24"/>
       <c r="C255" s="24"/>
@@ -7273,7 +7324,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A256" s="19" t="s">
         <v>17</v>
       </c>
@@ -7287,7 +7338,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="99" t="s">
         <v>17</v>
       </c>
@@ -7307,7 +7358,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A258" s="19" t="s">
         <v>17</v>
       </c>
@@ -7321,7 +7372,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="99" t="s">
         <v>17</v>
       </c>
@@ -7337,7 +7388,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="19" t="s">
         <v>17</v>
       </c>
@@ -7351,7 +7402,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="99" t="s">
         <v>17</v>
       </c>
@@ -7375,7 +7426,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="99" t="s">
         <v>17</v>
       </c>
@@ -7389,7 +7440,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="19" t="s">
         <v>17</v>
       </c>
@@ -7409,7 +7460,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A264" s="19" t="s">
         <v>17</v>
       </c>
@@ -7423,7 +7474,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="99" t="s">
         <v>17</v>
       </c>
@@ -7443,7 +7494,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="19" t="s">
         <v>17</v>
       </c>
@@ -7457,7 +7508,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="19" t="s">
         <v>17</v>
       </c>
@@ -7473,7 +7524,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A268" s="19" t="s">
         <v>17</v>
       </c>
@@ -7487,7 +7538,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="19" t="s">
         <v>17</v>
       </c>
@@ -7503,7 +7554,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="19" t="s">
         <v>17</v>
       </c>
@@ -7517,7 +7568,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
         <v>17</v>
       </c>
@@ -7533,7 +7584,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A272" s="19" t="s">
         <v>17</v>
       </c>
@@ -7547,7 +7598,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="19" t="s">
         <v>17</v>
       </c>
@@ -7571,7 +7622,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A274" s="19" t="s">
         <v>17</v>
       </c>
@@ -7585,7 +7636,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="19" t="s">
         <v>17</v>
       </c>
@@ -7601,7 +7652,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="19" t="s">
         <v>17</v>
       </c>
@@ -7615,7 +7666,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="99">
         <v>50</v>
       </c>
@@ -7641,7 +7692,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A278" s="19" t="s">
         <v>17</v>
       </c>
@@ -7655,7 +7706,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="99" t="s">
         <v>17</v>
       </c>
@@ -7671,7 +7722,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A280" s="19" t="s">
         <v>17</v>
       </c>
@@ -7685,7 +7736,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="99" t="s">
         <v>17</v>
       </c>
@@ -7705,7 +7756,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="19" t="s">
         <v>17</v>
       </c>
@@ -7719,7 +7770,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="19"/>
       <c r="B283" s="24"/>
       <c r="C283" s="3">
@@ -7741,7 +7792,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="19"/>
       <c r="B284" s="24"/>
       <c r="C284" s="6"/>
@@ -7753,7 +7804,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="19"/>
       <c r="B285" s="24"/>
       <c r="C285" s="5"/>
@@ -7767,7 +7818,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A286" s="19"/>
       <c r="B286" s="24"/>
       <c r="C286" s="6"/>
@@ -7779,7 +7830,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="19"/>
       <c r="B287" s="24"/>
       <c r="C287" s="6"/>
@@ -7793,7 +7844,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="19"/>
       <c r="B288" s="24"/>
       <c r="C288" s="6"/>
@@ -7805,7 +7856,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="19"/>
       <c r="B289" s="24"/>
       <c r="C289" s="5"/>
@@ -7819,7 +7870,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="19"/>
       <c r="B290" s="24"/>
       <c r="C290" s="6"/>
@@ -7831,7 +7882,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="19"/>
       <c r="B291" s="24"/>
       <c r="C291" s="6"/>
@@ -7849,7 +7900,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="19"/>
       <c r="B292" s="24"/>
       <c r="C292" s="6"/>
@@ -7861,7 +7912,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="19"/>
       <c r="B293" s="24"/>
       <c r="C293" s="6"/>
@@ -7875,7 +7926,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A294" s="19"/>
       <c r="B294" s="24"/>
       <c r="C294" s="6"/>
@@ -7887,7 +7938,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="19"/>
       <c r="B295" s="24"/>
       <c r="C295" s="6"/>
@@ -7905,7 +7956,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A296" s="19"/>
       <c r="B296" s="24"/>
       <c r="C296" s="6"/>
@@ -7917,7 +7968,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="99">
         <v>55</v>
       </c>
@@ -7943,7 +7994,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="19" t="s">
         <v>17</v>
       </c>
@@ -7957,7 +8008,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="99" t="s">
         <v>17</v>
       </c>
@@ -7977,7 +8028,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A300" s="19" t="s">
         <v>17</v>
       </c>
@@ -7991,7 +8042,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="99" t="s">
         <v>17</v>
       </c>
@@ -8011,7 +8062,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A302" s="19" t="s">
         <v>17</v>
       </c>
@@ -8025,7 +8076,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="99" t="s">
         <v>17</v>
       </c>
@@ -8045,7 +8096,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="19" t="s">
         <v>17</v>
       </c>
@@ -8059,7 +8110,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="19" t="s">
         <v>17</v>
       </c>
@@ -8079,7 +8130,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A306" s="19" t="s">
         <v>17</v>
       </c>
@@ -8093,7 +8144,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="19" t="s">
         <v>17</v>
       </c>
@@ -8109,7 +8160,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="65" x14ac:dyDescent="0.3">
       <c r="A308" s="19" t="s">
         <v>17</v>
       </c>
@@ -8123,7 +8174,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="99">
         <v>60</v>
       </c>
@@ -8149,7 +8200,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="19" t="s">
         <v>17</v>
       </c>
@@ -8163,7 +8214,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="19" t="s">
         <v>17</v>
       </c>
@@ -8183,7 +8234,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A312" s="19" t="s">
         <v>17</v>
       </c>
@@ -8199,7 +8250,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="19" t="s">
         <v>17</v>
       </c>
@@ -8219,7 +8270,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A314" s="19" t="s">
         <v>17</v>
       </c>
@@ -8233,7 +8284,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="19" t="s">
         <v>17</v>
       </c>
@@ -8253,7 +8304,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A316" s="19" t="s">
         <v>17</v>
       </c>
@@ -8267,7 +8318,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="19" t="s">
         <v>17</v>
       </c>
@@ -8287,7 +8338,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A318" s="19" t="s">
         <v>17</v>
       </c>
@@ -8301,7 +8352,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="19" t="s">
         <v>17</v>
       </c>
@@ -8316,7 +8367,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A320" s="19"/>
       <c r="B320" s="24"/>
       <c r="C320" s="24"/>
@@ -8328,7 +8379,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="19"/>
       <c r="B321" s="24"/>
       <c r="C321" s="24"/>
@@ -8346,7 +8397,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A322" s="19"/>
       <c r="B322" s="24"/>
       <c r="C322" s="24"/>
@@ -8358,7 +8409,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="19"/>
       <c r="B323" s="24"/>
       <c r="C323" s="24"/>
@@ -8372,7 +8423,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A324" s="19" t="s">
         <v>17</v>
       </c>
@@ -8386,7 +8437,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="19" t="s">
         <v>17</v>
       </c>
@@ -8406,7 +8457,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A326" s="19" t="s">
         <v>17</v>
       </c>
@@ -8420,7 +8471,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="19" t="s">
         <v>17</v>
       </c>
@@ -8440,7 +8491,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A328" s="19" t="s">
         <v>17</v>
       </c>
@@ -8454,7 +8505,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="19"/>
       <c r="B329" s="24"/>
       <c r="C329" s="24"/>
@@ -8468,7 +8519,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A330" s="19"/>
       <c r="B330" s="24"/>
       <c r="C330" s="24"/>
@@ -8480,7 +8531,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="19"/>
       <c r="B331" s="24"/>
       <c r="C331" s="24"/>
@@ -8494,7 +8545,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A332" s="19"/>
       <c r="B332" s="24"/>
       <c r="C332" s="24"/>
@@ -8506,7 +8557,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="19"/>
       <c r="B333" s="24"/>
       <c r="C333" s="24"/>
@@ -8520,7 +8571,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A334" s="19"/>
       <c r="B334" s="24"/>
       <c r="C334" s="24"/>
@@ -8532,7 +8583,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="19"/>
       <c r="B335" s="24"/>
       <c r="C335" s="24"/>
@@ -8546,7 +8597,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A336" s="19"/>
       <c r="B336" s="24"/>
       <c r="C336" s="24"/>
@@ -8558,7 +8609,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="99" t="s">
         <v>17</v>
       </c>
@@ -8582,7 +8633,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A338" s="19" t="s">
         <v>17</v>
       </c>
@@ -8596,7 +8647,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="19" t="s">
         <v>17</v>
       </c>
@@ -8612,7 +8663,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="19" t="s">
         <v>17</v>
       </c>
@@ -8626,7 +8677,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="19" t="s">
         <v>17</v>
       </c>
@@ -8642,7 +8693,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A342" s="19" t="s">
         <v>17</v>
       </c>
@@ -8656,7 +8707,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="19" t="s">
         <v>17</v>
       </c>
@@ -8672,7 +8723,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="102" t="s">
         <v>17</v>
       </c>
@@ -8731,19 +8782,19 @@
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="47" customWidth="1"/>
-    <col min="2" max="3" width="22.85546875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="47" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" style="47" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="55" customWidth="1"/>
-    <col min="8" max="8" width="93.42578125" style="93" customWidth="1"/>
-    <col min="9" max="16384" width="15.85546875" style="30"/>
+    <col min="1" max="1" width="3.1796875" style="47" customWidth="1"/>
+    <col min="2" max="3" width="22.81640625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="47.7265625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="55" customWidth="1"/>
+    <col min="8" max="8" width="93.453125" style="93" customWidth="1"/>
+    <col min="9" max="16384" width="15.81640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="84" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="84" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="116" t="s">
         <v>421</v>
       </c>
@@ -8755,7 +8806,7 @@
       <c r="G1" s="117"/>
       <c r="H1" s="118"/>
     </row>
-    <row r="2" spans="1:8" s="85" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="85" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="126" t="s">
         <v>422</v>
       </c>
@@ -8767,7 +8818,7 @@
       <c r="G2" s="127"/>
       <c r="H2" s="128"/>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="119" t="s">
         <v>423</v>
       </c>
@@ -8779,7 +8830,7 @@
       <c r="G3" s="120"/>
       <c r="H3" s="121"/>
     </row>
-    <row r="4" spans="1:8" s="86" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="86" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="122" t="s">
         <v>3</v>
       </c>
@@ -8797,7 +8848,7 @@
       </c>
       <c r="H4" s="125"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>10</v>
       </c>
@@ -8823,7 +8874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -8835,7 +8886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -8849,7 +8900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -8861,7 +8912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -8879,7 +8930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -8891,7 +8942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -8905,7 +8956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -8917,7 +8968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -8931,7 +8982,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
@@ -8943,7 +8994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
@@ -8957,7 +9008,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
@@ -8969,7 +9020,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
@@ -8983,7 +9034,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
@@ -8995,7 +9046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -9021,7 +9072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="7"/>
       <c r="C20" s="6"/>
@@ -9033,7 +9084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -9047,7 +9098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
@@ -9059,7 +9110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -9073,7 +9124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -9085,7 +9136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -9099,7 +9150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>
@@ -9111,7 +9162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -9125,7 +9176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
@@ -9137,7 +9188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -9155,7 +9206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
@@ -9167,7 +9218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -9185,7 +9236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
@@ -9197,7 +9248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -9211,7 +9262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
@@ -9223,7 +9274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
@@ -9241,7 +9292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
@@ -9253,7 +9304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -9267,7 +9318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="65" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
@@ -9279,7 +9330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="57"/>
       <c r="C39" s="58"/>
@@ -9293,7 +9344,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="57"/>
       <c r="C40" s="58"/>
@@ -9305,7 +9356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -9319,7 +9370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
@@ -9331,7 +9382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -9345,7 +9396,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
@@ -9357,7 +9408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="7"/>
       <c r="C45" s="6"/>
@@ -9371,7 +9422,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="7"/>
       <c r="C46" s="6"/>
@@ -9383,7 +9434,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -9397,7 +9448,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="7"/>
       <c r="C48" s="6"/>
@@ -9409,7 +9460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -9427,7 +9478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="7"/>
       <c r="C50" s="6"/>
@@ -9439,7 +9490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -9453,7 +9504,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="7"/>
       <c r="C52" s="6"/>
@@ -9465,7 +9516,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>20</v>
       </c>
@@ -9491,7 +9542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
@@ -9503,7 +9554,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -9521,7 +9572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
       <c r="C56" s="6"/>
@@ -9533,7 +9584,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -9551,7 +9602,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
       <c r="B58" s="7"/>
       <c r="C58" s="6"/>
@@ -9563,7 +9614,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -9581,7 +9632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
       <c r="B60" s="7"/>
       <c r="C60" s="6"/>
@@ -9593,7 +9644,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -9607,7 +9658,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
@@ -9619,7 +9670,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -9637,7 +9688,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
       <c r="B64" s="7"/>
       <c r="C64" s="6"/>
@@ -9649,7 +9700,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -9667,7 +9718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
@@ -9679,7 +9730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
       <c r="B67" s="7"/>
       <c r="C67" s="6"/>
@@ -9693,7 +9744,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="7"/>
       <c r="C68" s="6"/>
@@ -9705,7 +9756,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -9719,7 +9770,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A70" s="12"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
@@ -9731,7 +9782,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -9749,7 +9800,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="12"/>
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
@@ -9761,7 +9812,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A73" s="16"/>
       <c r="B73" s="61"/>
       <c r="C73" s="5">
@@ -9783,7 +9834,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="12"/>
       <c r="B74" s="7"/>
       <c r="C74" s="6"/>
@@ -9795,7 +9846,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="62"/>
       <c r="C75" s="63"/>
@@ -9809,7 +9860,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="57"/>
       <c r="C76" s="58"/>
@@ -9821,7 +9872,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="62"/>
       <c r="C77" s="63"/>
@@ -9835,7 +9886,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="57"/>
       <c r="C78" s="58"/>
@@ -9847,7 +9898,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="62"/>
       <c r="C79" s="63"/>
@@ -9861,7 +9912,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="57"/>
       <c r="C80" s="58"/>
@@ -9873,7 +9924,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -9887,7 +9938,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A82" s="12"/>
       <c r="B82" s="7"/>
       <c r="C82" s="6"/>
@@ -9899,7 +9950,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -9913,7 +9964,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="12"/>
       <c r="B84" s="7"/>
       <c r="C84" s="6"/>
@@ -9925,7 +9976,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A85" s="12"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
@@ -9939,7 +9990,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A86" s="12"/>
       <c r="B86" s="7"/>
       <c r="C86" s="6"/>
@@ -9951,7 +10002,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A87" s="12"/>
       <c r="B87" s="7"/>
       <c r="C87" s="6"/>
@@ -9965,7 +10016,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="65" x14ac:dyDescent="0.3">
       <c r="A88" s="12"/>
       <c r="B88" s="7"/>
       <c r="C88" s="6"/>
@@ -9977,7 +10028,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
@@ -9995,7 +10046,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A90" s="12"/>
       <c r="B90" s="64"/>
       <c r="C90" s="6"/>
@@ -10007,7 +10058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="12"/>
       <c r="B91" s="64"/>
       <c r="C91" s="6"/>
@@ -10021,7 +10072,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A92" s="12"/>
       <c r="B92" s="64"/>
       <c r="C92" s="6"/>
@@ -10033,7 +10084,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A93" s="12"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
@@ -10047,7 +10098,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A94" s="12"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6"/>
@@ -10059,7 +10110,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
       <c r="B95" s="24"/>
       <c r="C95" s="5">
@@ -10081,7 +10132,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A96" s="12"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
@@ -10093,7 +10144,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
@@ -10111,7 +10162,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="12"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
@@ -10123,7 +10174,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
@@ -10141,7 +10192,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A100" s="12"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
@@ -10153,7 +10204,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
@@ -10171,7 +10222,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="12"/>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
@@ -10183,7 +10234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
@@ -10197,7 +10248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="12"/>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
@@ -10209,7 +10260,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="12"/>
       <c r="B105" s="7"/>
       <c r="C105" s="6"/>
@@ -10223,7 +10274,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="12"/>
       <c r="B106" s="7"/>
       <c r="C106" s="6"/>
@@ -10235,7 +10286,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="12"/>
       <c r="B107" s="7"/>
       <c r="C107" s="6"/>
@@ -10249,7 +10300,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A108" s="12"/>
       <c r="B108" s="7"/>
       <c r="C108" s="6"/>
@@ -10261,7 +10312,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -10279,7 +10330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="12"/>
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
@@ -10291,7 +10342,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -10305,7 +10356,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="12"/>
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
@@ -10317,7 +10368,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -10331,7 +10382,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="12"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
@@ -10343,7 +10394,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="13">
         <v>25</v>
       </c>
@@ -10369,7 +10420,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A116" s="12"/>
       <c r="B116" s="7"/>
       <c r="C116" s="6"/>
@@ -10381,7 +10432,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -10395,7 +10446,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="12"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6"/>
@@ -10407,7 +10458,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
@@ -10425,7 +10476,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A120" s="12"/>
       <c r="B120" s="7"/>
       <c r="C120" s="6"/>
@@ -10437,7 +10488,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
@@ -10451,7 +10502,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A122" s="12"/>
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
@@ -10463,7 +10514,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="4"/>
       <c r="C123" s="5">
@@ -10485,7 +10536,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A124" s="12"/>
       <c r="B124" s="7"/>
       <c r="C124" s="6"/>
@@ -10497,7 +10548,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
@@ -10511,7 +10562,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="12"/>
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
@@ -10523,7 +10574,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
@@ -10537,7 +10588,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A128" s="12"/>
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
@@ -10549,7 +10600,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -10563,7 +10614,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A130" s="12"/>
       <c r="B130" s="7"/>
       <c r="C130" s="6"/>
@@ -10575,7 +10626,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -10589,7 +10640,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A132" s="12"/>
       <c r="B132" s="7"/>
       <c r="C132" s="6"/>
@@ -10601,7 +10652,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -10619,7 +10670,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="12"/>
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
@@ -10631,7 +10682,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="62"/>
       <c r="C135" s="63"/>
@@ -10645,7 +10696,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="15"/>
       <c r="B136" s="57"/>
       <c r="C136" s="58"/>
@@ -10657,7 +10708,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A137" s="16"/>
       <c r="B137" s="61"/>
       <c r="C137" s="5"/>
@@ -10675,7 +10726,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A138" s="12"/>
       <c r="B138" s="7"/>
       <c r="C138" s="6"/>
@@ -10687,7 +10738,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
@@ -10701,7 +10752,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="12"/>
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
@@ -10713,7 +10764,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="13"/>
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
@@ -10727,7 +10778,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A142" s="12"/>
       <c r="B142" s="7"/>
       <c r="C142" s="6"/>
@@ -10739,7 +10790,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
       <c r="B143" s="4"/>
       <c r="C143" s="5">
@@ -10761,7 +10812,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="12"/>
       <c r="B144" s="64"/>
       <c r="C144" s="6"/>
@@ -10773,7 +10824,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
@@ -10787,7 +10838,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A146" s="12"/>
       <c r="B146" s="7"/>
       <c r="C146" s="6"/>
@@ -10799,7 +10850,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="13"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5"/>
@@ -10813,7 +10864,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A148" s="12"/>
       <c r="B148" s="7"/>
       <c r="C148" s="6"/>
@@ -10825,7 +10876,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="13"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
@@ -10839,7 +10890,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A150" s="12"/>
       <c r="B150" s="7"/>
       <c r="C150" s="6"/>
@@ -10851,7 +10902,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A151" s="12"/>
       <c r="B151" s="7"/>
       <c r="C151" s="6"/>
@@ -10869,7 +10920,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A152" s="12"/>
       <c r="B152" s="7"/>
       <c r="C152" s="6"/>
@@ -10881,7 +10932,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A153" s="15"/>
       <c r="B153" s="57"/>
       <c r="C153" s="58"/>
@@ -10895,7 +10946,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="15"/>
       <c r="B154" s="57"/>
       <c r="C154" s="58"/>
@@ -10907,7 +10958,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="66"/>
       <c r="C155" s="67">
@@ -10929,7 +10980,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="15"/>
       <c r="B156" s="69"/>
       <c r="C156" s="70"/>
@@ -10941,7 +10992,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="66"/>
       <c r="C157" s="67"/>
@@ -10955,7 +11006,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A158" s="15"/>
       <c r="B158" s="69"/>
       <c r="C158" s="70"/>
@@ -10967,7 +11018,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A159" s="15"/>
       <c r="B159" s="69"/>
       <c r="C159" s="70"/>
@@ -10981,7 +11032,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="15"/>
       <c r="B160" s="69"/>
       <c r="C160" s="70"/>
@@ -10993,7 +11044,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="66"/>
       <c r="C161" s="67"/>
@@ -11007,7 +11058,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A162" s="15"/>
       <c r="B162" s="69"/>
       <c r="C162" s="70"/>
@@ -11019,7 +11070,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="66"/>
       <c r="C163" s="67"/>
@@ -11033,7 +11084,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="15"/>
       <c r="B164" s="69"/>
       <c r="C164" s="70"/>
@@ -11045,7 +11096,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="4"/>
       <c r="C165" s="5">
@@ -11067,7 +11118,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="15"/>
       <c r="B166" s="7"/>
       <c r="C166" s="6"/>
@@ -11079,7 +11130,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A167" s="17"/>
       <c r="B167" s="62"/>
       <c r="C167" s="63"/>
@@ -11097,7 +11148,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="15"/>
       <c r="B168" s="57"/>
       <c r="C168" s="58"/>
@@ -11109,7 +11160,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="62"/>
       <c r="C169" s="63"/>
@@ -11123,7 +11174,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A170" s="15"/>
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
@@ -11135,7 +11186,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="62"/>
       <c r="C171" s="63"/>
@@ -11153,7 +11204,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="15"/>
       <c r="B172" s="57"/>
       <c r="C172" s="58"/>
@@ -11165,7 +11216,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="62"/>
       <c r="C173" s="63"/>
@@ -11179,7 +11230,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A174" s="15"/>
       <c r="B174" s="57"/>
       <c r="C174" s="58"/>
@@ -11191,7 +11242,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="15"/>
       <c r="B175" s="57"/>
       <c r="C175" s="58"/>
@@ -11205,7 +11256,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A176" s="15"/>
       <c r="B176" s="57"/>
       <c r="C176" s="58"/>
@@ -11217,7 +11268,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="62"/>
       <c r="C177" s="63"/>
@@ -11235,7 +11286,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="15"/>
       <c r="B178" s="57"/>
       <c r="C178" s="58"/>
@@ -11247,7 +11298,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="62"/>
       <c r="C179" s="63"/>
@@ -11261,7 +11312,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="15"/>
       <c r="B180" s="57"/>
       <c r="C180" s="58"/>
@@ -11273,7 +11324,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="62"/>
       <c r="C181" s="63"/>
@@ -11287,7 +11338,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A182" s="15"/>
       <c r="B182" s="57"/>
       <c r="C182" s="58"/>
@@ -11299,7 +11350,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="17"/>
       <c r="B183" s="62"/>
       <c r="C183" s="63"/>
@@ -11313,7 +11364,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A184" s="15"/>
       <c r="B184" s="57"/>
       <c r="C184" s="58"/>
@@ -11325,7 +11376,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A185" s="15"/>
       <c r="B185" s="57"/>
       <c r="C185" s="58"/>
@@ -11339,7 +11390,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A186" s="15"/>
       <c r="B186" s="57"/>
       <c r="C186" s="58"/>
@@ -11351,7 +11402,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A187" s="15"/>
       <c r="B187" s="57"/>
       <c r="C187" s="58"/>
@@ -11365,7 +11416,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A188" s="12"/>
       <c r="B188" s="7"/>
       <c r="C188" s="6"/>
@@ -11377,7 +11428,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="13">
         <v>30</v>
       </c>
@@ -11403,7 +11454,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="12"/>
       <c r="B190" s="7"/>
       <c r="C190" s="6"/>
@@ -11415,7 +11466,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="13"/>
       <c r="B191" s="4"/>
       <c r="C191" s="5"/>
@@ -11429,7 +11480,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="12"/>
       <c r="B192" s="7"/>
       <c r="C192" s="6"/>
@@ -11441,7 +11492,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="13"/>
       <c r="B193" s="4"/>
       <c r="C193" s="5"/>
@@ -11455,7 +11506,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="12"/>
       <c r="B194" s="7"/>
       <c r="C194" s="6"/>
@@ -11467,7 +11518,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="12"/>
       <c r="B195" s="7"/>
       <c r="C195" s="6"/>
@@ -11481,7 +11532,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A196" s="12"/>
       <c r="B196" s="7"/>
       <c r="C196" s="6"/>
@@ -11493,7 +11544,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="13"/>
       <c r="B197" s="4"/>
       <c r="C197" s="5">
@@ -11515,7 +11566,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="12"/>
       <c r="B198" s="7"/>
       <c r="C198" s="6"/>
@@ -11527,7 +11578,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="13"/>
       <c r="B199" s="4"/>
       <c r="C199" s="5"/>
@@ -11541,7 +11592,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="12"/>
       <c r="B200" s="7"/>
       <c r="C200" s="6"/>
@@ -11553,7 +11604,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="13"/>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -11567,7 +11618,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A202" s="12"/>
       <c r="B202" s="7"/>
       <c r="C202" s="6"/>
@@ -11579,7 +11630,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="13"/>
       <c r="B203" s="4"/>
       <c r="C203" s="5"/>
@@ -11597,7 +11648,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A204" s="12"/>
       <c r="B204" s="7"/>
       <c r="C204" s="6"/>
@@ -11609,7 +11660,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A205" s="15"/>
       <c r="B205" s="57"/>
       <c r="C205" s="58"/>
@@ -11623,7 +11674,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="15"/>
       <c r="B206" s="57"/>
       <c r="C206" s="58"/>
@@ -11635,7 +11686,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A207" s="13"/>
       <c r="B207" s="4"/>
       <c r="C207" s="5"/>
@@ -11649,7 +11700,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="12"/>
       <c r="B208" s="7"/>
       <c r="C208" s="6"/>
@@ -11661,7 +11712,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="13"/>
       <c r="B209" s="4"/>
       <c r="C209" s="5"/>
@@ -11679,7 +11730,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="12"/>
       <c r="B210" s="7"/>
       <c r="C210" s="6"/>
@@ -11691,7 +11742,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="13"/>
       <c r="B211" s="4"/>
       <c r="C211" s="5">
@@ -11713,7 +11764,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A212" s="12"/>
       <c r="B212" s="7"/>
       <c r="C212" s="6"/>
@@ -11725,7 +11776,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="13"/>
       <c r="B213" s="4"/>
       <c r="C213" s="5"/>
@@ -11743,7 +11794,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="12"/>
       <c r="B214" s="7"/>
       <c r="C214" s="6"/>
@@ -11755,7 +11806,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="13">
         <v>35</v>
       </c>
@@ -11781,7 +11832,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A216" s="12"/>
       <c r="B216" s="7"/>
       <c r="C216" s="6"/>
@@ -11793,7 +11844,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="13"/>
       <c r="B217" s="4"/>
       <c r="C217" s="5"/>
@@ -11807,7 +11858,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A218" s="12"/>
       <c r="B218" s="7"/>
       <c r="C218" s="6"/>
@@ -11819,7 +11870,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A219" s="13"/>
       <c r="B219" s="4"/>
       <c r="C219" s="5"/>
@@ -11837,7 +11888,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="12"/>
       <c r="B220" s="7"/>
       <c r="C220" s="6"/>
@@ -11849,7 +11900,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A221" s="12"/>
       <c r="B221" s="7"/>
       <c r="C221" s="6"/>
@@ -11863,7 +11914,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A222" s="12"/>
       <c r="B222" s="7"/>
       <c r="C222" s="6"/>
@@ -11875,7 +11926,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="13"/>
       <c r="B223" s="4"/>
       <c r="C223" s="5"/>
@@ -11889,7 +11940,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A224" s="12"/>
       <c r="B224" s="7"/>
       <c r="C224" s="6"/>
@@ -11901,7 +11952,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="13"/>
       <c r="B225" s="4"/>
       <c r="C225" s="5"/>
@@ -11915,7 +11966,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="12"/>
       <c r="B226" s="7"/>
       <c r="C226" s="6"/>
@@ -11927,7 +11978,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A227" s="12"/>
       <c r="B227" s="7"/>
       <c r="C227" s="6"/>
@@ -11945,7 +11996,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A228" s="12"/>
       <c r="B228" s="7"/>
       <c r="C228" s="6"/>
@@ -11957,7 +12008,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A229" s="13"/>
       <c r="B229" s="4"/>
       <c r="C229" s="5">
@@ -11979,7 +12030,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A230" s="12"/>
       <c r="B230" s="7"/>
       <c r="C230" s="6"/>
@@ -11991,7 +12042,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="13"/>
       <c r="B231" s="4"/>
       <c r="C231" s="5"/>
@@ -12009,7 +12060,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="12"/>
       <c r="B232" s="7"/>
       <c r="C232" s="6"/>
@@ -12021,7 +12072,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A233" s="12"/>
       <c r="B233" s="7"/>
       <c r="C233" s="6"/>
@@ -12039,7 +12090,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A234" s="12"/>
       <c r="B234" s="7"/>
       <c r="C234" s="6"/>
@@ -12051,7 +12102,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A235" s="13">
         <v>40</v>
       </c>
@@ -12077,7 +12128,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A236" s="12"/>
       <c r="B236" s="7"/>
       <c r="C236" s="6"/>
@@ -12089,7 +12140,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="12"/>
       <c r="B237" s="7"/>
       <c r="C237" s="6"/>
@@ -12103,7 +12154,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="65" x14ac:dyDescent="0.3">
       <c r="A238" s="12"/>
       <c r="B238" s="7"/>
       <c r="C238" s="6"/>
@@ -12115,7 +12166,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="12"/>
       <c r="B239" s="7"/>
       <c r="C239" s="6"/>
@@ -12133,7 +12184,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A240" s="12"/>
       <c r="B240" s="7"/>
       <c r="C240" s="6"/>
@@ -12145,7 +12196,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A241" s="13"/>
       <c r="B241" s="4"/>
       <c r="C241" s="5">
@@ -12167,7 +12218,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A242" s="15"/>
       <c r="B242" s="57"/>
       <c r="C242" s="58"/>
@@ -12179,7 +12230,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="4"/>
       <c r="C243" s="5"/>
@@ -12193,7 +12244,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A244" s="15"/>
       <c r="B244" s="7"/>
       <c r="C244" s="6"/>
@@ -12205,7 +12256,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="4"/>
       <c r="C245" s="5"/>
@@ -12219,7 +12270,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A246" s="15"/>
       <c r="B246" s="7"/>
       <c r="C246" s="6"/>
@@ -12231,7 +12282,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A247" s="15"/>
       <c r="B247" s="7"/>
       <c r="C247" s="6"/>
@@ -12245,7 +12296,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A248" s="15"/>
       <c r="B248" s="7"/>
       <c r="C248" s="6"/>
@@ -12257,7 +12308,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="15"/>
       <c r="B249" s="7"/>
       <c r="C249" s="6"/>
@@ -12271,7 +12322,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A250" s="15"/>
       <c r="B250" s="7"/>
       <c r="C250" s="6"/>
@@ -12283,7 +12334,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="15"/>
       <c r="B251" s="7"/>
       <c r="C251" s="6"/>
@@ -12297,7 +12348,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A252" s="15"/>
       <c r="B252" s="7"/>
       <c r="C252" s="6"/>
@@ -12309,7 +12360,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A253" s="15"/>
       <c r="B253" s="7"/>
       <c r="C253" s="6"/>
@@ -12327,7 +12378,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A254" s="15"/>
       <c r="B254" s="7"/>
       <c r="C254" s="6"/>
@@ -12339,7 +12390,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A255" s="15"/>
       <c r="B255" s="7"/>
       <c r="C255" s="6"/>
@@ -12357,7 +12408,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A256" s="15"/>
       <c r="B256" s="7"/>
       <c r="C256" s="6"/>
@@ -12369,7 +12420,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A257" s="15"/>
       <c r="B257" s="7"/>
       <c r="C257" s="6"/>
@@ -12383,7 +12434,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A258" s="15"/>
       <c r="B258" s="7"/>
       <c r="C258" s="6"/>
@@ -12395,7 +12446,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A259" s="15"/>
       <c r="B259" s="7"/>
       <c r="C259" s="6"/>
@@ -12409,7 +12460,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="65" x14ac:dyDescent="0.3">
       <c r="A260" s="15"/>
       <c r="B260" s="7"/>
       <c r="C260" s="6"/>
@@ -12421,7 +12472,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A261" s="15"/>
       <c r="B261" s="57"/>
       <c r="C261" s="58"/>
@@ -12435,7 +12486,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A262" s="15"/>
       <c r="B262" s="57"/>
       <c r="C262" s="58"/>
@@ -12447,7 +12498,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A263" s="15"/>
       <c r="B263" s="57"/>
       <c r="C263" s="58"/>
@@ -12465,7 +12516,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A264" s="15"/>
       <c r="B264" s="57"/>
       <c r="C264" s="58"/>
@@ -12477,7 +12528,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="4"/>
       <c r="C265" s="5">
@@ -12499,7 +12550,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="15"/>
       <c r="B266" s="64"/>
       <c r="C266" s="6"/>
@@ -12511,7 +12562,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="4"/>
       <c r="C267" s="5"/>
@@ -12525,7 +12576,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A268" s="15"/>
       <c r="B268" s="7"/>
       <c r="C268" s="6"/>
@@ -12537,7 +12588,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="4"/>
       <c r="C269" s="5"/>
@@ -12551,7 +12602,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="15"/>
       <c r="B270" s="7"/>
       <c r="C270" s="6"/>
@@ -12563,7 +12614,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="4"/>
       <c r="C271" s="5"/>
@@ -12577,7 +12628,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="15"/>
       <c r="B272" s="7"/>
       <c r="C272" s="6"/>
@@ -12589,7 +12640,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="4"/>
       <c r="C273" s="5"/>
@@ -12603,7 +12654,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="15"/>
       <c r="B274" s="7"/>
       <c r="C274" s="6"/>
@@ -12615,7 +12666,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="66"/>
       <c r="C275" s="67">
@@ -12637,7 +12688,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="15"/>
       <c r="B276" s="57"/>
       <c r="C276" s="70"/>
@@ -12649,7 +12700,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="62"/>
       <c r="C277" s="67"/>
@@ -12663,7 +12714,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="62"/>
       <c r="C278" s="67"/>
@@ -12675,7 +12726,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A279" s="15"/>
       <c r="B279" s="57"/>
       <c r="C279" s="70"/>
@@ -12693,7 +12744,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="15"/>
       <c r="B280" s="57"/>
       <c r="C280" s="70"/>
@@ -12705,7 +12756,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A281" s="15"/>
       <c r="B281" s="57"/>
       <c r="C281" s="70"/>
@@ -12719,7 +12770,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A282" s="15"/>
       <c r="B282" s="57"/>
       <c r="C282" s="70"/>
@@ -12731,7 +12782,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A283" s="15"/>
       <c r="B283" s="57"/>
       <c r="C283" s="70"/>
@@ -12745,7 +12796,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A284" s="15"/>
       <c r="B284" s="57"/>
       <c r="C284" s="70"/>
@@ -12757,7 +12808,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A285" s="15"/>
       <c r="B285" s="57"/>
       <c r="C285" s="58"/>
@@ -12771,7 +12822,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A286" s="15"/>
       <c r="B286" s="57"/>
       <c r="C286" s="58"/>
@@ -12783,7 +12834,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A287" s="15"/>
       <c r="B287" s="57"/>
       <c r="C287" s="58"/>
@@ -12797,7 +12848,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A288" s="15"/>
       <c r="B288" s="57"/>
       <c r="C288" s="58"/>
@@ -12809,7 +12860,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A289" s="15"/>
       <c r="B289" s="57"/>
       <c r="C289" s="58"/>
@@ -12823,7 +12874,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A290" s="15"/>
       <c r="B290" s="57"/>
       <c r="C290" s="58"/>
@@ -12835,7 +12886,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A291" s="15"/>
       <c r="B291" s="57"/>
       <c r="C291" s="58"/>
@@ -12849,7 +12900,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A292" s="15"/>
       <c r="B292" s="57"/>
       <c r="C292" s="58"/>
@@ -12861,7 +12912,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A293" s="15"/>
       <c r="B293" s="57"/>
       <c r="C293" s="58"/>
@@ -12875,7 +12926,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A294" s="15"/>
       <c r="B294" s="57"/>
       <c r="C294" s="58"/>
@@ -12887,7 +12938,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A295" s="15"/>
       <c r="B295" s="57"/>
       <c r="C295" s="58"/>
@@ -12901,7 +12952,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A296" s="15"/>
       <c r="B296" s="57"/>
       <c r="C296" s="58"/>
@@ -12913,7 +12964,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="62"/>
       <c r="C297" s="63"/>
@@ -12931,7 +12982,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A298" s="17"/>
       <c r="B298" s="62"/>
       <c r="C298" s="63"/>
@@ -12943,7 +12994,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="62"/>
       <c r="C299" s="63"/>
@@ -12957,7 +13008,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="62"/>
       <c r="C300" s="63"/>
@@ -12969,7 +13020,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="62"/>
       <c r="C301" s="63"/>
@@ -12983,7 +13034,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="62"/>
       <c r="C302" s="63"/>
@@ -12995,7 +13046,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="62"/>
       <c r="C303" s="63"/>
@@ -13009,7 +13060,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="62"/>
       <c r="C304" s="63"/>
@@ -13021,7 +13072,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A305" s="13">
         <v>45</v>
       </c>
@@ -13047,7 +13098,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A306" s="15"/>
       <c r="B306" s="57"/>
       <c r="C306" s="58"/>
@@ -13059,7 +13110,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="62"/>
       <c r="C307" s="63"/>
@@ -13077,7 +13128,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A308" s="15"/>
       <c r="B308" s="57"/>
       <c r="C308" s="58"/>
@@ -13089,7 +13140,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="15"/>
       <c r="B309" s="57"/>
       <c r="C309" s="58"/>
@@ -13103,7 +13154,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A310" s="15"/>
       <c r="B310" s="57"/>
       <c r="C310" s="58"/>
@@ -13115,7 +13166,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A311" s="15"/>
       <c r="B311" s="57"/>
       <c r="C311" s="58"/>
@@ -13129,7 +13180,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A312" s="15"/>
       <c r="B312" s="57"/>
       <c r="C312" s="58"/>
@@ -13141,7 +13192,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="17"/>
       <c r="B313" s="62"/>
       <c r="C313" s="63"/>
@@ -13159,7 +13210,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="65" x14ac:dyDescent="0.3">
       <c r="A314" s="15"/>
       <c r="B314" s="57"/>
       <c r="C314" s="58"/>
@@ -13171,7 +13222,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="62"/>
       <c r="C315" s="63"/>
@@ -13185,7 +13236,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="15"/>
       <c r="B316" s="57"/>
       <c r="C316" s="58"/>
@@ -13197,7 +13248,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A317" s="15"/>
       <c r="B317" s="57"/>
       <c r="C317" s="58"/>
@@ -13211,7 +13262,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="15"/>
       <c r="B318" s="57"/>
       <c r="C318" s="58"/>
@@ -13223,7 +13274,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A319" s="13"/>
       <c r="B319" s="4"/>
       <c r="C319" s="5">
@@ -13245,7 +13296,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A320" s="13"/>
       <c r="B320" s="64"/>
       <c r="C320" s="5"/>
@@ -13257,7 +13308,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="62"/>
       <c r="C321" s="63"/>
@@ -13271,7 +13322,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="15"/>
       <c r="B322" s="57"/>
       <c r="C322" s="58"/>
@@ -13283,7 +13334,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="62"/>
       <c r="C323" s="63"/>
@@ -13297,7 +13348,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A324" s="15"/>
       <c r="B324" s="57"/>
       <c r="C324" s="58"/>
@@ -13309,7 +13360,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
       <c r="B325" s="62"/>
       <c r="C325" s="63"/>
@@ -13327,7 +13378,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A326" s="15"/>
       <c r="B326" s="57"/>
       <c r="C326" s="58"/>
@@ -13339,7 +13390,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="62"/>
       <c r="C327" s="63"/>
@@ -13353,7 +13404,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A328" s="15"/>
       <c r="B328" s="57"/>
       <c r="C328" s="58"/>
@@ -13365,7 +13416,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A329" s="15"/>
       <c r="B329" s="57"/>
       <c r="C329" s="58"/>
@@ -13379,7 +13430,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A330" s="15"/>
       <c r="B330" s="57"/>
       <c r="C330" s="58"/>
@@ -13391,7 +13442,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A331" s="17"/>
       <c r="B331" s="62"/>
       <c r="C331" s="63"/>
@@ -13409,7 +13460,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A332" s="15"/>
       <c r="B332" s="57"/>
       <c r="C332" s="58"/>
@@ -13421,7 +13472,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A333" s="15"/>
       <c r="B333" s="57"/>
       <c r="C333" s="58"/>
@@ -13435,7 +13486,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A334" s="15"/>
       <c r="B334" s="57"/>
       <c r="C334" s="58"/>
@@ -13447,7 +13498,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A335" s="15"/>
       <c r="B335" s="57"/>
       <c r="C335" s="58"/>
@@ -13461,7 +13512,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="15"/>
       <c r="B336" s="57"/>
       <c r="C336" s="58"/>
@@ -13473,7 +13524,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A337" s="15"/>
       <c r="B337" s="57"/>
       <c r="C337" s="58"/>
@@ -13487,7 +13538,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A338" s="15"/>
       <c r="B338" s="57"/>
       <c r="C338" s="58"/>
@@ -13499,7 +13550,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
       <c r="B339" s="62"/>
       <c r="C339" s="63"/>
@@ -13517,7 +13568,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="15"/>
       <c r="B340" s="57"/>
       <c r="C340" s="58"/>
@@ -13529,7 +13580,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
       <c r="B341" s="62"/>
       <c r="C341" s="63"/>
@@ -13547,7 +13598,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="15"/>
       <c r="B342" s="57"/>
       <c r="C342" s="58"/>
@@ -13559,7 +13610,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A343" s="17"/>
       <c r="B343" s="62"/>
       <c r="C343" s="63"/>
@@ -13573,7 +13624,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="15"/>
       <c r="B344" s="57"/>
       <c r="C344" s="58"/>
@@ -13585,7 +13636,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A345" s="15"/>
       <c r="B345" s="7"/>
       <c r="C345" s="67">
@@ -13607,7 +13658,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A346" s="15"/>
       <c r="B346" s="7"/>
       <c r="C346" s="6"/>
@@ -13619,7 +13670,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A347" s="15"/>
       <c r="B347" s="7"/>
       <c r="C347" s="6"/>
@@ -13633,7 +13684,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="15"/>
       <c r="B348" s="7"/>
       <c r="C348" s="6"/>
@@ -13645,7 +13696,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A349" s="38">
         <v>50</v>
       </c>
@@ -13671,7 +13722,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A350" s="15"/>
       <c r="B350" s="57"/>
       <c r="C350" s="6"/>
@@ -13683,7 +13734,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
       <c r="B351" s="62"/>
       <c r="C351" s="5"/>
@@ -13697,7 +13748,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A352" s="15"/>
       <c r="B352" s="57"/>
       <c r="C352" s="58"/>
@@ -13709,7 +13760,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
       <c r="B353" s="62"/>
       <c r="C353" s="63"/>
@@ -13727,7 +13778,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="15"/>
       <c r="B354" s="57"/>
       <c r="C354" s="58"/>
@@ -13739,7 +13790,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A355" s="74"/>
       <c r="C355" s="67">
         <v>5020</v>
@@ -13760,7 +13811,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="74"/>
       <c r="C356" s="70"/>
       <c r="D356" s="71"/>
@@ -13771,7 +13822,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A357" s="74"/>
       <c r="C357" s="67"/>
       <c r="D357" s="68"/>
@@ -13784,7 +13835,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A358" s="74"/>
       <c r="C358" s="70"/>
       <c r="D358" s="71"/>
@@ -13795,7 +13846,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A359" s="74"/>
       <c r="C359" s="70"/>
       <c r="D359" s="71"/>
@@ -13808,7 +13859,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="74"/>
       <c r="C360" s="70"/>
       <c r="D360" s="71"/>
@@ -13819,7 +13870,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A361" s="74"/>
       <c r="C361" s="67"/>
       <c r="D361" s="68"/>
@@ -13832,7 +13883,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="74"/>
       <c r="C362" s="70"/>
       <c r="D362" s="71"/>
@@ -13843,7 +13894,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A363" s="74"/>
       <c r="C363" s="70"/>
       <c r="D363" s="71"/>
@@ -13860,7 +13911,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A364" s="74"/>
       <c r="C364" s="70"/>
       <c r="D364" s="71"/>
@@ -13871,7 +13922,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A365" s="74"/>
       <c r="C365" s="70"/>
       <c r="D365" s="71"/>
@@ -13884,7 +13935,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A366" s="74"/>
       <c r="C366" s="70"/>
       <c r="D366" s="71"/>
@@ -13895,7 +13946,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A367" s="74"/>
       <c r="C367" s="70"/>
       <c r="D367" s="71"/>
@@ -13912,7 +13963,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A368" s="74"/>
       <c r="C368" s="70"/>
       <c r="D368" s="71"/>
@@ -13923,7 +13974,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="13">
         <v>55</v>
       </c>
@@ -13949,7 +14000,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="12"/>
       <c r="B370" s="7"/>
       <c r="C370" s="6"/>
@@ -13961,7 +14012,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="13"/>
       <c r="B371" s="4"/>
       <c r="C371" s="5"/>
@@ -13979,7 +14030,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A372" s="12"/>
       <c r="B372" s="7"/>
       <c r="C372" s="6"/>
@@ -13991,7 +14042,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A373" s="13"/>
       <c r="B373" s="4"/>
       <c r="C373" s="5"/>
@@ -14009,7 +14060,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A374" s="12"/>
       <c r="B374" s="7"/>
       <c r="C374" s="6"/>
@@ -14021,7 +14072,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="13"/>
       <c r="B375" s="4"/>
       <c r="C375" s="5"/>
@@ -14039,7 +14090,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="12"/>
       <c r="B376" s="7"/>
       <c r="C376" s="6"/>
@@ -14051,7 +14102,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A377" s="12"/>
       <c r="B377" s="7"/>
       <c r="C377" s="6"/>
@@ -14069,7 +14120,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A378" s="15"/>
       <c r="B378" s="7"/>
       <c r="C378" s="6"/>
@@ -14081,7 +14132,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A379" s="15"/>
       <c r="B379" s="7"/>
       <c r="C379" s="6"/>
@@ -14095,7 +14146,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" ht="65" x14ac:dyDescent="0.3">
       <c r="A380" s="15"/>
       <c r="B380" s="7"/>
       <c r="C380" s="6"/>
@@ -14107,7 +14158,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A381" s="21">
         <v>60</v>
       </c>
@@ -14133,7 +14184,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="22"/>
       <c r="B382" s="49"/>
       <c r="C382" s="48"/>
@@ -14145,7 +14196,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="22"/>
       <c r="B383" s="49"/>
       <c r="C383" s="48"/>
@@ -14159,7 +14210,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A384" s="22"/>
       <c r="B384" s="49"/>
       <c r="C384" s="48"/>
@@ -14171,7 +14222,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="22"/>
       <c r="B385" s="49"/>
       <c r="C385" s="48"/>
@@ -14185,7 +14236,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A386" s="22"/>
       <c r="B386" s="49"/>
       <c r="C386" s="48"/>
@@ -14197,7 +14248,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="22"/>
       <c r="B387" s="49"/>
       <c r="C387" s="48"/>
@@ -14211,7 +14262,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A388" s="22"/>
       <c r="B388" s="49"/>
       <c r="C388" s="48"/>
@@ -14223,7 +14274,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="22"/>
       <c r="B389" s="49"/>
       <c r="C389" s="48"/>
@@ -14237,7 +14288,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A390" s="22"/>
       <c r="B390" s="49"/>
       <c r="C390" s="48"/>
@@ -14249,7 +14300,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="22"/>
       <c r="B391" s="49"/>
       <c r="C391" s="48"/>
@@ -14263,7 +14314,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A392" s="22"/>
       <c r="B392" s="49"/>
       <c r="C392" s="48"/>
@@ -14275,7 +14326,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="22"/>
       <c r="B393" s="49"/>
       <c r="C393" s="48"/>
@@ -14289,7 +14340,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A394" s="22"/>
       <c r="B394" s="49"/>
       <c r="C394" s="48"/>
@@ -14301,7 +14352,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="22"/>
       <c r="B395" s="49"/>
       <c r="C395" s="48"/>
@@ -14315,7 +14366,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A396" s="22"/>
       <c r="B396" s="49"/>
       <c r="C396" s="48"/>
@@ -14327,7 +14378,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="74"/>
       <c r="E397" s="26">
         <v>601025</v>
@@ -14342,7 +14393,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A398" s="74"/>
       <c r="E398" s="26" t="s">
         <v>379</v>
@@ -14353,7 +14404,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="74"/>
       <c r="E399" s="26">
         <v>601030</v>
@@ -14368,7 +14419,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A400" s="74"/>
       <c r="E400" s="26"/>
       <c r="F400" s="26"/>
@@ -14377,7 +14428,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="74"/>
       <c r="E401" s="26">
         <v>601040</v>
@@ -14392,7 +14443,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A402" s="74"/>
       <c r="E402" s="26"/>
       <c r="F402" s="26"/>
@@ -14401,7 +14452,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="74"/>
       <c r="E403" s="26">
         <v>601050</v>
@@ -14416,7 +14467,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A404" s="74"/>
       <c r="E404" s="26"/>
       <c r="F404" s="26"/>
@@ -14425,7 +14476,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="15"/>
       <c r="B405" s="57"/>
       <c r="C405" s="58"/>
@@ -14443,7 +14494,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A406" s="15"/>
       <c r="B406" s="57"/>
       <c r="C406" s="58"/>
@@ -14455,7 +14506,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="15"/>
       <c r="B407" s="57"/>
       <c r="C407" s="58"/>
@@ -14469,7 +14520,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A408" s="74"/>
       <c r="E408" s="26"/>
       <c r="F408" s="26"/>
@@ -14478,7 +14529,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="74"/>
       <c r="E409" s="26">
         <v>601070</v>
@@ -14493,7 +14544,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A410" s="74"/>
       <c r="E410" s="26"/>
       <c r="F410" s="26"/>
@@ -14502,7 +14553,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="74"/>
       <c r="E411" s="26">
         <v>601080</v>
@@ -14517,7 +14568,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" ht="52" x14ac:dyDescent="0.3">
       <c r="A412" s="74"/>
       <c r="E412" s="24"/>
       <c r="F412" s="24"/>
@@ -14526,7 +14577,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="74"/>
       <c r="E413" s="24"/>
       <c r="F413" s="24"/>
@@ -14537,7 +14588,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A414" s="74"/>
       <c r="E414" s="24"/>
       <c r="F414" s="24"/>
@@ -14546,7 +14597,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="74"/>
       <c r="E415" s="24"/>
       <c r="F415" s="24"/>
@@ -14557,7 +14608,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A416" s="74"/>
       <c r="E416" s="24"/>
       <c r="F416" s="24"/>
@@ -14566,7 +14617,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="74"/>
       <c r="E417" s="24"/>
       <c r="F417" s="24"/>
@@ -14577,7 +14628,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A418" s="74"/>
       <c r="E418" s="24"/>
       <c r="F418" s="24"/>
@@ -14586,7 +14637,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="74"/>
       <c r="E419" s="24"/>
       <c r="F419" s="24"/>
@@ -14597,7 +14648,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A420" s="74"/>
       <c r="E420" s="24"/>
       <c r="F420" s="24"/>
@@ -14606,7 +14657,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="21"/>
       <c r="B421" s="75"/>
       <c r="C421" s="77"/>
@@ -14624,7 +14675,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A422" s="22"/>
       <c r="B422" s="49"/>
       <c r="C422" s="48"/>
@@ -14636,7 +14687,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="22"/>
       <c r="B423" s="49"/>
       <c r="C423" s="48"/>
@@ -14650,7 +14701,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="22"/>
       <c r="B424" s="49"/>
       <c r="C424" s="48"/>
@@ -14662,7 +14713,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="22"/>
       <c r="B425" s="49"/>
       <c r="C425" s="48"/>
@@ -14676,7 +14727,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A426" s="22"/>
       <c r="B426" s="49"/>
       <c r="C426" s="48"/>
@@ -14688,7 +14739,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="22"/>
       <c r="B427" s="49"/>
       <c r="C427" s="48"/>
@@ -14702,7 +14753,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="22"/>
       <c r="B428" s="49"/>
       <c r="C428" s="48"/>
@@ -14714,7 +14765,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="74"/>
       <c r="C429" s="26">
         <v>6020</v>
@@ -14735,7 +14786,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A430" s="74"/>
       <c r="C430" s="24"/>
       <c r="D430" s="24"/>
@@ -14746,7 +14797,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="74"/>
       <c r="C431" s="24"/>
       <c r="D431" s="24"/>
@@ -14759,7 +14810,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="74"/>
       <c r="C432" s="24"/>
       <c r="D432" s="24"/>
@@ -14770,7 +14821,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="74"/>
       <c r="C433" s="24"/>
       <c r="D433" s="24"/>
@@ -14783,7 +14834,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A434" s="74"/>
       <c r="C434" s="24"/>
       <c r="D434" s="24"/>
@@ -14794,7 +14845,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="74"/>
       <c r="C435" s="24"/>
       <c r="D435" s="24"/>
@@ -14807,7 +14858,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A436" s="79"/>
       <c r="B436" s="80"/>
       <c r="C436" s="81" t="s">
@@ -14847,34 +14898,25 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF74A48B-B532-44FF-A11A-5E25E9248EF0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="129"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f88dcad1-0fd5-48d2-8718-83ef65a0d846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="f88dcad1-0fd5-48d2-8718-83ef65a0d846" xsi:nil="true"/>
-    <URL xmlns="f88dcad1-0fd5-48d2-8718-83ef65a0d846">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </URL>
-    <TaxCatchAll xmlns="78928aff-efcd-4558-8050-8d7388437e1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF6BB8A4940DD447B5EC08738031CB66" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7aa644d9ddf4cf78e8d2e2a5934ac129">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f88dcad1-0fd5-48d2-8718-83ef65a0d846" xmlns:ns3="78928aff-efcd-4558-8050-8d7388437e1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b30d684aeeefc02427f55e783138b44" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15147,10 +15189,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f88dcad1-0fd5-48d2-8718-83ef65a0d846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="f88dcad1-0fd5-48d2-8718-83ef65a0d846" xsi:nil="true"/>
+    <URL xmlns="f88dcad1-0fd5-48d2-8718-83ef65a0d846">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </URL>
+    <TaxCatchAll xmlns="78928aff-efcd-4558-8050-8d7388437e1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBB711-1C1F-43CA-BF70-44E4EA34D611}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D104F008-E8F0-4440-BBF2-F884511D3C7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f88dcad1-0fd5-48d2-8718-83ef65a0d846"/>
+    <ds:schemaRef ds:uri="78928aff-efcd-4558-8050-8d7388437e1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15167,10 +15248,17 @@
     <ds:schemaRef ds:uri="ea790318-de22-4d81-bc21-5130c7de2079"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f88dcad1-0fd5-48d2-8718-83ef65a0d846"/>
+    <ds:schemaRef ds:uri="78928aff-efcd-4558-8050-8d7388437e1d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D104F008-E8F0-4440-BBF2-F884511D3C7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0DBB711-1C1F-43CA-BF70-44E4EA34D611}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>